--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.270269</v>
+        <v>1.217872</v>
       </c>
       <c r="H2">
-        <v>0.8108069999999999</v>
+        <v>3.653616</v>
       </c>
       <c r="I2">
-        <v>0.07675782952922429</v>
+        <v>0.4812552202382371</v>
       </c>
       <c r="J2">
-        <v>0.07675782952922428</v>
+        <v>0.4812552202382372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>7.364940880110666</v>
+        <v>32.40080579933867</v>
       </c>
       <c r="R2">
-        <v>66.28446792099599</v>
+        <v>291.607252194048</v>
       </c>
       <c r="S2">
-        <v>0.03497355610704849</v>
+        <v>0.2760588538270537</v>
       </c>
       <c r="T2">
-        <v>0.03497355610704848</v>
+        <v>0.2760588538270537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.270269</v>
+        <v>1.217872</v>
       </c>
       <c r="H3">
-        <v>0.8108069999999999</v>
+        <v>3.653616</v>
       </c>
       <c r="I3">
-        <v>0.07675782952922429</v>
+        <v>0.4812552202382371</v>
       </c>
       <c r="J3">
-        <v>0.07675782952922428</v>
+        <v>0.4812552202382372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>3.792273617671666</v>
+        <v>17.08854458077333</v>
       </c>
       <c r="R3">
-        <v>34.13046255904499</v>
+        <v>153.79690122696</v>
       </c>
       <c r="S3">
-        <v>0.01800819535416649</v>
+        <v>0.1455965033634158</v>
       </c>
       <c r="T3">
-        <v>0.01800819535416649</v>
+        <v>0.1455965033634159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.270269</v>
+        <v>1.217872</v>
       </c>
       <c r="H4">
-        <v>0.8108069999999999</v>
+        <v>3.653616</v>
       </c>
       <c r="I4">
-        <v>0.07675782952922429</v>
+        <v>0.4812552202382371</v>
       </c>
       <c r="J4">
-        <v>0.07675782952922428</v>
+        <v>0.4812552202382372</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.1011936685316667</v>
+        <v>0.2462687388213333</v>
       </c>
       <c r="R4">
-        <v>0.9107430167849998</v>
+        <v>2.216418649392</v>
       </c>
       <c r="S4">
-        <v>0.0004805337207292195</v>
+        <v>0.00209823996950838</v>
       </c>
       <c r="T4">
-        <v>0.0004805337207292194</v>
+        <v>0.00209823996950838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.270269</v>
+        <v>1.217872</v>
       </c>
       <c r="H5">
-        <v>0.8108069999999999</v>
+        <v>3.653616</v>
       </c>
       <c r="I5">
-        <v>0.07675782952922429</v>
+        <v>0.4812552202382371</v>
       </c>
       <c r="J5">
-        <v>0.07675782952922428</v>
+        <v>0.4812552202382372</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>4.867299285748</v>
+        <v>6.748919285424001</v>
       </c>
       <c r="R5">
-        <v>43.805693571732</v>
+        <v>60.74027356881601</v>
       </c>
       <c r="S5">
-        <v>0.02311312031296942</v>
+        <v>0.05750162307825922</v>
       </c>
       <c r="T5">
-        <v>0.02311312031296941</v>
+        <v>0.05750162307825923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.270269</v>
+        <v>1.02442</v>
       </c>
       <c r="H6">
-        <v>0.8108069999999999</v>
+        <v>3.07326</v>
       </c>
       <c r="I6">
-        <v>0.07675782952922429</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J6">
-        <v>0.07675782952922428</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>0.03841594557033332</v>
+        <v>27.25412315658667</v>
       </c>
       <c r="R6">
-        <v>0.3457435101329999</v>
+        <v>245.28710840928</v>
       </c>
       <c r="S6">
-        <v>0.0001824240343106713</v>
+        <v>0.2322084841736326</v>
       </c>
       <c r="T6">
-        <v>0.0001824240343106712</v>
+        <v>0.2322084841736326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>3.07326</v>
       </c>
       <c r="I7">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J7">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>27.91586432925334</v>
+        <v>14.37412703423333</v>
       </c>
       <c r="R7">
-        <v>251.24277896328</v>
+        <v>129.3671433081</v>
       </c>
       <c r="S7">
-        <v>0.1325627813296479</v>
+        <v>0.1224693317323581</v>
       </c>
       <c r="T7">
-        <v>0.1325627813296479</v>
+        <v>0.1224693317323581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>3.07326</v>
       </c>
       <c r="I8">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J8">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>14.37412703423333</v>
+        <v>0.2071503585133333</v>
       </c>
       <c r="R8">
-        <v>129.3671433081</v>
+        <v>1.86435322662</v>
       </c>
       <c r="S8">
-        <v>0.06825775610490008</v>
+        <v>0.001764946553959508</v>
       </c>
       <c r="T8">
-        <v>0.06825775610490006</v>
+        <v>0.001764946553959509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +977,10 @@
         <v>3.07326</v>
       </c>
       <c r="I9">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J9">
-        <v>0.2909407136087674</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +989,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>0.3835616290333334</v>
+        <v>5.67689206614</v>
       </c>
       <c r="R9">
-        <v>3.4520546613</v>
+        <v>51.09202859526</v>
       </c>
       <c r="S9">
-        <v>0.001821401471087794</v>
+        <v>0.04836781920746212</v>
       </c>
       <c r="T9">
-        <v>0.001821401471087794</v>
+        <v>0.04836781920746213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02442</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H10">
-        <v>3.07326</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I10">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J10">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.009092</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N10">
-        <v>54.027276</v>
+        <v>79.813328</v>
       </c>
       <c r="O10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q10">
-        <v>18.44887402664</v>
+        <v>7.670690459276444</v>
       </c>
       <c r="R10">
-        <v>166.03986623976</v>
+        <v>69.03621413348799</v>
       </c>
       <c r="S10">
-        <v>0.08760731978514788</v>
+        <v>0.06535522694602838</v>
       </c>
       <c r="T10">
-        <v>0.08760731978514788</v>
+        <v>0.06535522694602838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.02442</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H11">
-        <v>3.07326</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I11">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J11">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1421396666666666</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N11">
-        <v>0.4264189999999999</v>
+        <v>42.094435</v>
       </c>
       <c r="O11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q11">
-        <v>0.1456107173266666</v>
+        <v>4.045607281820556</v>
       </c>
       <c r="R11">
-        <v>1.31049645594</v>
+        <v>36.410465536385</v>
       </c>
       <c r="S11">
-        <v>0.0006914549179837047</v>
+        <v>0.0344690720400713</v>
       </c>
       <c r="T11">
-        <v>0.0006914549179837044</v>
+        <v>0.03446907204007131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.226372</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H12">
-        <v>6.679116</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I12">
-        <v>0.6323014568620083</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J12">
-        <v>0.6323014568620083</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.25040933333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N12">
-        <v>81.751228</v>
+        <v>0.606637</v>
       </c>
       <c r="O12">
-        <v>0.455635031912059</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P12">
-        <v>0.4556350319120589</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q12">
-        <v>60.669548328272</v>
+        <v>0.05830260139188888</v>
       </c>
       <c r="R12">
-        <v>546.0259349544481</v>
+        <v>0.5247234125269999</v>
       </c>
       <c r="S12">
-        <v>0.2880986944753625</v>
+        <v>0.0004967453406886856</v>
       </c>
       <c r="T12">
-        <v>0.2880986944753625</v>
+        <v>0.0004967453406886857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.226372</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H13">
-        <v>6.679116</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I13">
-        <v>0.6323014568620083</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J13">
-        <v>0.6323014568620083</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,214 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.03147833333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N13">
-        <v>42.094435</v>
+        <v>16.624701</v>
       </c>
       <c r="O13">
-        <v>0.2346105337346748</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P13">
-        <v>0.2346105337346747</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q13">
-        <v>31.23929047994</v>
+        <v>1.597764916519</v>
       </c>
       <c r="R13">
-        <v>281.15361431946</v>
+        <v>14.379884248671</v>
       </c>
       <c r="S13">
-        <v>0.1483445822756082</v>
+        <v>0.01361315376756204</v>
       </c>
       <c r="T13">
-        <v>0.1483445822756082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.226372</v>
-      </c>
-      <c r="H14">
-        <v>6.679116</v>
-      </c>
-      <c r="I14">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J14">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.123255</v>
-      </c>
-      <c r="O14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q14">
-        <v>0.8335944936199999</v>
-      </c>
-      <c r="R14">
-        <v>7.50235044258</v>
-      </c>
-      <c r="S14">
-        <v>0.003958451842006867</v>
-      </c>
-      <c r="T14">
-        <v>0.003958451842006866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.226372</v>
-      </c>
-      <c r="H15">
-        <v>6.679116</v>
-      </c>
-      <c r="I15">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J15">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>18.009092</v>
-      </c>
-      <c r="N15">
-        <v>54.027276</v>
-      </c>
-      <c r="O15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q15">
-        <v>40.094938174224</v>
-      </c>
-      <c r="R15">
-        <v>360.8544435680161</v>
-      </c>
-      <c r="S15">
-        <v>0.1903969892863271</v>
-      </c>
-      <c r="T15">
-        <v>0.1903969892863271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.226372</v>
-      </c>
-      <c r="H16">
-        <v>6.679116</v>
-      </c>
-      <c r="I16">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J16">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q16">
-        <v>0.3164557739559999</v>
-      </c>
-      <c r="R16">
-        <v>2.848101965604</v>
-      </c>
-      <c r="S16">
-        <v>0.001502738982703594</v>
-      </c>
-      <c r="T16">
-        <v>0.001502738982703594</v>
+        <v>0.01361315376756204</v>
       </c>
     </row>
   </sheetData>
